--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/90.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/90.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1312550577289177</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.615016946900427</v>
+        <v>-2.588020027985527</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2172315209560492</v>
+        <v>-0.1567377584741466</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1156387875859709</v>
+        <v>0.1693179063465675</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1189283440502802</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.729994313515557</v>
+        <v>-2.712698792885012</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3077846140708032</v>
+        <v>-0.2460173372158506</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1476047302543366</v>
+        <v>0.1976853170221196</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.09942713896411112</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.91786269028817</v>
+        <v>-2.933372973097873</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.410057332989271</v>
+        <v>-0.3594644128530196</v>
       </c>
       <c r="G4" t="n">
-        <v>0.156899921367977</v>
+        <v>0.1940398211371965</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.07487765789690673</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.069293185990501</v>
+        <v>-3.098615427485502</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.4813125358917164</v>
+        <v>-0.4277401532495507</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2100660968394285</v>
+        <v>0.2496487289190239</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.04627852231825112</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.22367051344254</v>
+        <v>-3.284951988478463</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4998437558133526</v>
+        <v>-0.4707889645351054</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2055746409758558</v>
+        <v>0.2418637014010117</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.01454951216541787</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.985531864571675</v>
+        <v>-3.076316422583255</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5536216817235824</v>
+        <v>-0.5116804863870021</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2180591073082118</v>
+        <v>0.2477634641071957</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.0199312983926271</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.664349770918517</v>
+        <v>-2.751267736799852</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5863610038100646</v>
+        <v>-0.5254964095566992</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2386890642785381</v>
+        <v>0.2614299567110894</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.0572788160419307</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.240647635512468</v>
+        <v>-2.31914320676859</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6318708450262978</v>
+        <v>-0.562998602207907</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2363658764208047</v>
+        <v>0.2502781670574279</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.1004262889174566</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.844779840110495</v>
+        <v>-1.914912179047047</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6997592857930938</v>
+        <v>-0.6494390001993487</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2815250132479077</v>
+        <v>0.2839256610315881</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1530748767717431</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.278137914743126</v>
+        <v>-1.347199842891985</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.8277310124263411</v>
+        <v>-0.8003559426918579</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3094654794497362</v>
+        <v>0.3120265363714013</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2162136924497649</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.7285097266536438</v>
+        <v>-0.8304451594378699</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.103460902367219</v>
+        <v>-1.073281417361049</v>
       </c>
       <c r="G12" t="n">
-        <v>0.347626386431832</v>
+        <v>0.3434398909066333</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2898492897731674</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1411115907358613</v>
+        <v>-0.2029770648197703</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.447953249404674</v>
+        <v>-1.452896656489717</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3973495596830406</v>
+        <v>0.4187626548023115</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3721224336842932</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5352922695397652</v>
+        <v>0.4473917214481886</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.787228944893902</v>
+        <v>-1.810057055983228</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5248363993782732</v>
+        <v>0.5250090069297929</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4585776115021576</v>
       </c>
       <c r="E15" t="n">
-        <v>1.113458646094289</v>
+        <v>1.02284273114983</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.131365098256135</v>
+        <v>-2.173380093994602</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6165806675747161</v>
+        <v>0.6190105915508803</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.5478338358470418</v>
       </c>
       <c r="E16" t="n">
-        <v>1.720858520685347</v>
+        <v>1.623392586620331</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.514763065421995</v>
+        <v>-2.603406496897851</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7149413552725219</v>
+        <v>0.7322368759030665</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.6420934123756665</v>
       </c>
       <c r="E17" t="n">
-        <v>2.257335599142788</v>
+        <v>2.150221329892294</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.762306081207639</v>
+        <v>-2.8881894394437</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8307988374241992</v>
+        <v>0.870027105590604</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.7444740303946077</v>
       </c>
       <c r="E18" t="n">
-        <v>2.693660652874813</v>
+        <v>2.5828063500345</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.004573283139411</v>
+        <v>-3.157538644224779</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9668605519138328</v>
+        <v>1.008219882924795</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.8569370459189559</v>
       </c>
       <c r="E19" t="n">
-        <v>3.035662693789106</v>
+        <v>2.9311088715396</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.198182538281916</v>
+        <v>-3.398542395474668</v>
       </c>
       <c r="G19" t="n">
-        <v>1.076909149540162</v>
+        <v>1.113460475856319</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.9762013782788036</v>
       </c>
       <c r="E20" t="n">
-        <v>3.419669971711036</v>
+        <v>3.297860273674975</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.436037269077755</v>
+        <v>-3.644501142302459</v>
       </c>
       <c r="G20" t="n">
-        <v>1.170611263108966</v>
+        <v>1.214689620496871</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.096842042956132</v>
       </c>
       <c r="E21" t="n">
-        <v>3.731118646244311</v>
+        <v>3.610717864971537</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.596858713439976</v>
+        <v>-3.797505538311138</v>
       </c>
       <c r="G21" t="n">
-        <v>1.340035028696041</v>
+        <v>1.368282284998274</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.214124182087845</v>
       </c>
       <c r="E22" t="n">
-        <v>3.95107677958267</v>
+        <v>3.824951282837939</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.739133384903303</v>
+        <v>-3.958982037480186</v>
       </c>
       <c r="G22" t="n">
-        <v>1.418545847969082</v>
+        <v>1.45540640406835</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.321735137511301</v>
       </c>
       <c r="E23" t="n">
-        <v>4.164092795778283</v>
+        <v>4.037402512486883</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.885604920543334</v>
+        <v>-4.10378940455371</v>
       </c>
       <c r="G23" t="n">
-        <v>1.51388254895157</v>
+        <v>1.553452982617631</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.41530600513657</v>
       </c>
       <c r="E24" t="n">
-        <v>4.289150931338705</v>
+        <v>4.169195392159957</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.014214624204461</v>
+        <v>-4.214801981809639</v>
       </c>
       <c r="G24" t="n">
-        <v>1.582949966386521</v>
+        <v>1.611143549669199</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.490753000285935</v>
       </c>
       <c r="E25" t="n">
-        <v>4.399459965094005</v>
+        <v>4.279084800489655</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.991596935748612</v>
+        <v>-4.180283521109083</v>
       </c>
       <c r="G25" t="n">
-        <v>1.603997719020419</v>
+        <v>1.606761879527441</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.543970591007039</v>
       </c>
       <c r="E26" t="n">
-        <v>4.385786763362667</v>
+        <v>4.275228881971254</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.917876738431089</v>
+        <v>-4.050018797691601</v>
       </c>
       <c r="G26" t="n">
-        <v>1.587945216729087</v>
+        <v>1.563353215042605</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.573736268568373</v>
       </c>
       <c r="E27" t="n">
-        <v>4.49743640276546</v>
+        <v>4.384320514055765</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.857817849391708</v>
+        <v>-3.961769984893602</v>
       </c>
       <c r="G27" t="n">
-        <v>1.505127747557529</v>
+        <v>1.486802070903957</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.579075820318126</v>
       </c>
       <c r="E28" t="n">
-        <v>4.389579250130686</v>
+        <v>4.309446651778173</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.742590415299111</v>
+        <v>-3.809994274088231</v>
       </c>
       <c r="G28" t="n">
-        <v>1.460377867504524</v>
+        <v>1.42612716198106</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.559065094665149</v>
       </c>
       <c r="E29" t="n">
-        <v>4.288101867774698</v>
+        <v>4.2357133411661</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.685588143731253</v>
+        <v>-3.740524918927304</v>
       </c>
       <c r="G29" t="n">
-        <v>1.403002629442834</v>
+        <v>1.344588086547966</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.516149217306114</v>
       </c>
       <c r="E30" t="n">
-        <v>4.10312268524784</v>
+        <v>4.071018900506529</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.54423170784677</v>
+        <v>-3.595389109569351</v>
       </c>
       <c r="G30" t="n">
-        <v>1.331172271342215</v>
+        <v>1.259688958106666</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.452792694962558</v>
       </c>
       <c r="E31" t="n">
-        <v>3.853003974444289</v>
+        <v>3.836438528863812</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.457916953514738</v>
+        <v>-3.474144198079959</v>
       </c>
       <c r="G31" t="n">
-        <v>1.253583042211741</v>
+        <v>1.165759954046112</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.37251107603462</v>
       </c>
       <c r="E32" t="n">
-        <v>3.613961423130484</v>
+        <v>3.622089226068828</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.362576593008189</v>
+        <v>-3.362682414245604</v>
       </c>
       <c r="G32" t="n">
-        <v>1.202699799833358</v>
+        <v>1.097451887853713</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.280921455640416</v>
       </c>
       <c r="E33" t="n">
-        <v>3.386342686092169</v>
+        <v>3.428539438192307</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.264638275379031</v>
+        <v>-3.22710101228891</v>
       </c>
       <c r="G33" t="n">
-        <v>1.081041972045806</v>
+        <v>0.9936092331132956</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.181889183722782</v>
       </c>
       <c r="E34" t="n">
-        <v>3.087179033829953</v>
+        <v>3.148064975307005</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.070813718237634</v>
+        <v>-3.037664224496039</v>
       </c>
       <c r="G34" t="n">
-        <v>1.000494017712428</v>
+        <v>0.9177680366423816</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.079921334222526</v>
       </c>
       <c r="E35" t="n">
-        <v>2.748460805839273</v>
+        <v>2.806006821690452</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.977883764245593</v>
+        <v>-2.952304300983456</v>
       </c>
       <c r="G35" t="n">
-        <v>0.956360767463615</v>
+        <v>0.8713097687738053</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9800829188467538</v>
       </c>
       <c r="E36" t="n">
-        <v>2.42436481615295</v>
+        <v>2.493731094719507</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.866529936371023</v>
+        <v>-2.858994366409801</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8649525655600603</v>
+        <v>0.8002229039781423</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8838121434159113</v>
       </c>
       <c r="E37" t="n">
-        <v>2.110935119261598</v>
+        <v>2.19110553269607</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.805359771858607</v>
+        <v>-2.818291310047019</v>
       </c>
       <c r="G37" t="n">
-        <v>0.809735226852705</v>
+        <v>0.7511932105363962</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7936995953624815</v>
       </c>
       <c r="E38" t="n">
-        <v>1.860662708447507</v>
+        <v>1.947355613599122</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.706143975372</v>
+        <v>-2.720352687457523</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8086196819349328</v>
+        <v>0.7631616839762233</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7109744705013827</v>
       </c>
       <c r="E39" t="n">
-        <v>1.571310240191461</v>
+        <v>1.662387865088218</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.538220614649725</v>
+        <v>-2.573234940860478</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7088799635869997</v>
+        <v>0.6727775388889287</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6350256118386445</v>
       </c>
       <c r="E40" t="n">
-        <v>1.331977976556199</v>
+        <v>1.426015546497215</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.444907630472686</v>
+        <v>-2.47880763160702</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6360023716844045</v>
+        <v>0.6136768352327185</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5662354791135976</v>
       </c>
       <c r="E41" t="n">
-        <v>1.050765509652033</v>
+        <v>1.137987216030389</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.329048318558979</v>
+        <v>-2.372892466407013</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5967064023228806</v>
+        <v>0.5824263295181783</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5036869216088282</v>
       </c>
       <c r="E42" t="n">
-        <v>0.7766933841105558</v>
+        <v>0.8727278343472444</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.195226842715041</v>
+        <v>-2.250837580258898</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5656974251963326</v>
+        <v>0.5587528683708792</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4454341135032778</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6280380274874283</v>
+        <v>0.7105218700488055</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.062362942333597</v>
+        <v>-2.124282699357737</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4844364735918353</v>
+        <v>0.4815033650573539</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3916185161248095</v>
       </c>
       <c r="E44" t="n">
-        <v>0.451953928110264</v>
+        <v>0.5238568667714159</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.9866236026157</v>
+        <v>-2.041143192068856</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4239073357106813</v>
+        <v>0.4233638963876988</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3408755788333669</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3801461370746849</v>
+        <v>0.4498588505856345</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.883606170550923</v>
+        <v>-1.935784274526043</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3792776100309957</v>
+        <v>0.3787134334050037</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2923563641524489</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1627917551053633</v>
+        <v>0.2330125325400439</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.830144793471925</v>
+        <v>-1.880849329092022</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2862342107930794</v>
+        <v>0.2927756100512023</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.246077625528871</v>
       </c>
       <c r="E47" t="n">
-        <v>0.02788767006019755</v>
+        <v>0.07910270928673198</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.731683468862456</v>
+        <v>-1.784247652625957</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2594715014180514</v>
+        <v>0.2531905382888999</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2013513682031049</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.02963577872594204</v>
+        <v>0.02329496736428468</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.718239597305576</v>
+        <v>-1.761548844720102</v>
       </c>
       <c r="G48" t="n">
-        <v>0.22229256672552</v>
+        <v>0.2208391257528294</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1585386985808584</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.1165488652418635</v>
+        <v>-0.07558598267078723</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.635316001936263</v>
+        <v>-1.675062702677904</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2056301437574398</v>
+        <v>0.1797871947629479</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1181633197410183</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.2179335396549862</v>
+        <v>-0.1805356434395023</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.615112989439661</v>
+        <v>-1.647754114297186</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1449863407890572</v>
+        <v>0.1348903238268466</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.08050909510022831</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.300122790529494</v>
+        <v>-0.282237476604534</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.614206647314013</v>
+        <v>-1.645251609760489</v>
       </c>
       <c r="G51" t="n">
-        <v>0.09978450951458187</v>
+        <v>0.08098492449517648</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.04597109657315403</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.3817191985062027</v>
+        <v>-0.362155382878832</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.596418310776656</v>
+        <v>-1.617601465800792</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0594339873029606</v>
+        <v>0.04046240465271226</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.01460232907642072</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.4941446570098187</v>
+        <v>-0.4662639630343115</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.544849517557607</v>
+        <v>-1.562055989769347</v>
       </c>
       <c r="G53" t="n">
-        <v>0.043605325899995</v>
+        <v>0.02335778919398972</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.0141927758763435</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.558287574900705</v>
+        <v>-0.5389256430173379</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.562876333079573</v>
+        <v>-1.585112821112454</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.0007737223815471876</v>
+        <v>-0.007074202972354626</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.04029377130480467</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.5885042650681573</v>
+        <v>-0.5838151949053182</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.523372990687955</v>
+        <v>-1.537515831340389</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.03896146587341984</v>
+        <v>-0.04954846898041263</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.06400551473429734</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.6441515978526199</v>
+        <v>-0.654159176316702</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.519171857066514</v>
+        <v>-1.534173466031809</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.08238354861314433</v>
+        <v>-0.09675327975732857</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.08567611676769316</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.7264390459560841</v>
+        <v>-0.7332585690428042</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.579840056861967</v>
+        <v>-1.598436538296015</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1040278036689027</v>
+        <v>-0.1160627584624953</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1054119472417967</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.7907789682255599</v>
+        <v>-0.7961907943903455</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.59325526214704</v>
+        <v>-1.620044198111168</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1345140787754776</v>
+        <v>-0.139487981894358</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1234219367656371</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.9151722902483264</v>
+        <v>-0.9449120224465617</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.593916416160635</v>
+        <v>-1.61226404995857</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1323921647410711</v>
+        <v>-0.1507660251281064</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1401787584425714</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.038114610981109</v>
+        <v>-1.061219626057679</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.619928923103263</v>
+        <v>-1.649441154889071</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1608614321696402</v>
+        <v>-0.1850423473199937</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1557422364657147</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.157393138208666</v>
+        <v>-1.175133900933237</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.660198935785554</v>
+        <v>-1.69666609304832</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1809339216414188</v>
+        <v>-0.1890867313275101</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.170606120690116</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.235215357037658</v>
+        <v>-1.26078628141032</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.603501929516408</v>
+        <v>-1.644922252595045</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2165044955093655</v>
+        <v>-0.2172083439703328</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1849028851383835</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.279429116815802</v>
+        <v>-1.303796057772563</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.695190694931267</v>
+        <v>-1.737294739088538</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2354541210152509</v>
+        <v>-0.2405768447792579</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1984306317564779</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.374385227296</v>
+        <v>-1.39954201552915</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.752156066298182</v>
+        <v>-1.809028119801554</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2461393213512002</v>
+        <v>-0.2509662335869843</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2114857268769157</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.403200929668962</v>
+        <v>-1.418820388279803</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.824137074805957</v>
+        <v>-1.886273963591019</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2636629523148486</v>
+        <v>-0.2768256504397484</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2236967945078121</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.445691053614615</v>
+        <v>-1.455538832861389</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.901510392016862</v>
+        <v>-1.959051528502628</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3015640330886497</v>
+        <v>-0.3024715950556508</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2346960172569627</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.471673674444082</v>
+        <v>-1.486907053266542</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.995713860381953</v>
+        <v>-2.0583600329321</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3329218848422976</v>
+        <v>-0.3336446408442441</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2439749430709606</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.495531331635759</v>
+        <v>-1.494888475242467</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.085388057801513</v>
+        <v>-2.177931932005173</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3764293564767668</v>
+        <v>-0.3856141519479158</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2510342302769574</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.477755803432614</v>
+        <v>-1.490617810663877</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.22744163301952</v>
+        <v>-2.306883191245277</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3593338898281955</v>
+        <v>-0.3682423912327776</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2549532262453161</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.47080392755904</v>
+        <v>-1.473647377754039</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.317034710989072</v>
+        <v>-2.425021776727993</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4044381337943911</v>
+        <v>-0.4060666220013084</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2549287241256863</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.555309657163837</v>
+        <v>-1.559477245148056</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.422092327717572</v>
+        <v>-2.531993324540128</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4386851797937946</v>
+        <v>-0.440821731924443</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2500138659138804</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.562202370731766</v>
+        <v>-1.588592418573301</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.555608233302459</v>
+        <v>-2.661742969946095</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4348695160400587</v>
+        <v>-0.4389724524325429</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2397798727167099</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.540126901757547</v>
+        <v>-1.561011195650077</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.670861893984156</v>
+        <v>-2.797711366572186</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4758354482145188</v>
+        <v>-0.4936981950744392</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2241599769058093</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.476600613670853</v>
+        <v>-1.506636157397311</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.750887146297561</v>
+        <v>-2.889717900659631</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5020937531898761</v>
+        <v>-0.5348696705169633</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2038685913751323</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.4590403874666</v>
+        <v>-1.483278635160568</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.866632403044717</v>
+        <v>-3.008198346681664</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5142537417222022</v>
+        <v>-0.5420911313296604</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1795501128273599</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.331853018823651</v>
+        <v>-1.357883823386581</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.907274467339824</v>
+        <v>-3.044367557693838</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.48760996687914</v>
+        <v>-0.5131876003792466</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1525531644668861</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.215747908877214</v>
+        <v>-1.253956999592772</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.936615921336143</v>
+        <v>-3.087668571179228</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4934438581522352</v>
+        <v>-0.5298524630300337</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1237828663208571</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.017699346088998</v>
+        <v>-1.060908566512538</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.952524482347762</v>
+        <v>-3.109316180798709</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4828824717136658</v>
+        <v>-0.5220485279710424</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.09412013485379504</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.8062788823837583</v>
+        <v>-0.8615718512550303</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.008711289970809</v>
+        <v>-3.167837459812008</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4886407328228443</v>
+        <v>-0.5368732599400807</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.063852988553821</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6073251973112489</v>
+        <v>-0.6802613415988119</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.055231769748413</v>
+        <v>-3.196207005209929</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4412151307609455</v>
+        <v>-0.4885998681375022</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.03296990540219335</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3141003426785293</v>
+        <v>-0.3936370485298598</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.098139689357639</v>
+        <v>-3.23936712701899</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.385708079732135</v>
+        <v>-0.4366321867958606</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.001540017140003657</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.006000742581278044</v>
+        <v>-0.1102514342544399</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.065409821041646</v>
+        <v>-3.198580511523494</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3072728906230115</v>
+        <v>-0.3645499314557449</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.02975370477370579</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2233519989410314</v>
+        <v>0.1083374271646199</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.095343508015088</v>
+        <v>-3.221063407509781</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2506069903083797</v>
+        <v>-0.3117612968832005</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.06002571875594547</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5398300793747707</v>
+        <v>0.4114466562847185</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.998607649000138</v>
+        <v>-3.118672059019686</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1967699020925054</v>
+        <v>-0.2533760301808159</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.08743901243889864</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7563067854902519</v>
+        <v>0.6315749574918903</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.92195891755321</v>
+        <v>-3.031157895676829</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1622929159979679</v>
+        <v>-0.2107505038449244</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1096340209283083</v>
       </c>
       <c r="E86" t="n">
-        <v>1.069256474809004</v>
+        <v>0.9448381460384906</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.877238313692689</v>
+        <v>-2.980794915635712</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1540236114626177</v>
+        <v>-0.199305342345747</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.124711935950794</v>
       </c>
       <c r="E87" t="n">
-        <v>1.280457976991291</v>
+        <v>1.153076653573136</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.784173567231087</v>
+        <v>-2.859687236298587</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1340785954122795</v>
+        <v>-0.1800635648356993</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1300658448994497</v>
       </c>
       <c r="E88" t="n">
-        <v>1.439472836308984</v>
+        <v>1.308880890448427</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.621844398955945</v>
+        <v>-2.697170212455006</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1092542139479568</v>
+        <v>-0.1349550514247664</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1247492236017047</v>
       </c>
       <c r="E89" t="n">
-        <v>1.510198018143335</v>
+        <v>1.4130394840994</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.381984553935296</v>
+        <v>-2.45527689189808</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.09771817426794401</v>
+        <v>-0.1365628023286743</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1079330007638395</v>
       </c>
       <c r="E90" t="n">
-        <v>1.583659304133578</v>
+        <v>1.487754157080361</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.132689236045355</v>
+        <v>-2.190702451134924</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.08694880487860354</v>
+        <v>-0.1231555260123985</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.08060533088165396</v>
       </c>
       <c r="E91" t="n">
-        <v>1.589694469230001</v>
+        <v>1.515388443102461</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.761523228051678</v>
+        <v>-1.821138704759064</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.08070565683141043</v>
+        <v>-0.1028024730293158</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.04451667705718543</v>
       </c>
       <c r="E92" t="n">
-        <v>1.603743992018892</v>
+        <v>1.532227743066799</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.473183228119034</v>
+        <v>-1.515236648860136</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.05075489207902029</v>
+        <v>-0.08008902702721814</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.001741739845988537</v>
       </c>
       <c r="E93" t="n">
-        <v>1.6079512248471</v>
+        <v>1.519729858479554</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.119675643558566</v>
+        <v>-1.173646914323325</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.0245118351205816</v>
+        <v>-0.05170819809677751</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.04426187866474747</v>
       </c>
       <c r="E94" t="n">
-        <v>1.593417425040871</v>
+        <v>1.516056306243501</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.8084654480099002</v>
+        <v>-0.8582758399178838</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.05052007261847229</v>
+        <v>-0.07173921296253723</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.08815488277169906</v>
       </c>
       <c r="E95" t="n">
-        <v>1.52769054315247</v>
+        <v>1.443790464779684</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.5812022947261295</v>
+        <v>-0.6292225694478576</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1204175920944765</v>
+        <v>-0.1380186829840719</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1266806255629085</v>
       </c>
       <c r="E96" t="n">
-        <v>1.452290929251521</v>
+        <v>1.348014010989259</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.317492721482602</v>
+        <v>-0.3658411335284205</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1771231372530969</v>
+        <v>-0.1967522143928797</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1554182053831433</v>
       </c>
       <c r="E97" t="n">
-        <v>1.339794719949402</v>
+        <v>1.249309937950444</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1336156656186277</v>
+        <v>-0.1812303430903184</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2026965013084663</v>
+        <v>-0.2226738431546721</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1746023111022253</v>
       </c>
       <c r="E98" t="n">
-        <v>1.242456869226503</v>
+        <v>1.159124017083093</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.02045525269953027</v>
+        <v>-0.06120039358900753</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.2722646636190265</v>
+        <v>-0.2760419023701272</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1850455643563537</v>
       </c>
       <c r="E99" t="n">
-        <v>1.166024049699144</v>
+        <v>1.083280380929472</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1924967218250239</v>
+        <v>0.1670904760350836</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3048856610942196</v>
+        <v>-0.3201001323756999</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1932698350883669</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9985361723400664</v>
+        <v>0.9110869655492834</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2378705507303422</v>
+        <v>0.2206305328813816</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3006302445325484</v>
+        <v>-0.3040104249230862</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2039795753641441</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8666969386955596</v>
+        <v>0.7792611501596651</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2948377518592876</v>
+        <v>0.2624570631307331</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3577090611453387</v>
+        <v>-0.3525887770640387</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.226147803668777</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7291823931539123</v>
+        <v>0.6584309847304608</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2864354846164063</v>
+        <v>0.2622496901006388</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3297460278784705</v>
+        <v>-0.3319173454876935</v>
       </c>
     </row>
   </sheetData>
